--- a/10.会員機能追加改修(var1.01)/03.設計/SQL仕様書/【MMA】SQL一覧.xlsx
+++ b/10.会員機能追加改修(var1.01)/03.設計/SQL仕様書/【MMA】SQL一覧.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F55C6F-FAEB-4DF6-97D3-570405AE972F}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C3114B-FF90-4EB6-BE54-23537979F3B5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -127,6 +127,13 @@
   </si>
   <si>
     <t>ホテル情報削除処理</t>
+  </si>
+  <si>
+    <t>sql-011</t>
+  </si>
+  <si>
+    <t>UPDATE userInfo SET lastLoginDate = ? WHERE userId = ?;
+　※?にはそれぞれ現在日時より一日前の日付、URLのuidが入る</t>
   </si>
 </sst>
 </file>
@@ -513,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,6 +652,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="31.5">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
